--- a/MONTHLY PAY TRACKER1.xlsx
+++ b/MONTHLY PAY TRACKER1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
@@ -33,8 +33,7 @@
     <definedName name="PAY">Table3[]</definedName>
     <definedName name="TOTAL">'INVOICES(FEB19-MAR18)'!$A$1:$L$514</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D266" authorId="0" shapeId="0">
+    <comment ref="D266" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1060,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
@@ -2090,7 +2089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2101,7 +2100,7 @@
   <dimension ref="A1:L514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32:L36"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33746,8 +33745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
